--- a/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
+++ b/marsframework-master/MarsFramework/ExcelData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Auckland</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Nax</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
   </si>
 </sst>
 </file>
@@ -164,10 +164,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -505,19 +508,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -559,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -628,36 +631,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="29">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
